--- a/Curso Ingenieria del Software 2/Profesor 1- Jorge Aguirre.xlsx
+++ b/Curso Ingenieria del Software 2/Profesor 1- Jorge Aguirre.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaaguir\Documents\Desarrollo\Curso Ingenieria del Software 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F4D1A1-7EB9-4FE1-93B7-230734725B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A688C35-181C-4020-A15C-4C5C6679DEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{79E3D04C-5467-4E76-8884-973C89821C5F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>9:30pm a 10:30pm</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>POO</t>
+  </si>
+  <si>
+    <t>F-409</t>
+  </si>
+  <si>
+    <t>F404</t>
   </si>
 </sst>
 </file>
@@ -329,41 +335,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="18" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,7 +708,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -724,66 +730,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43" t="s">
+      <c r="G3" s="33"/>
+      <c r="H3" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43" t="s">
+      <c r="I3" s="33"/>
+      <c r="J3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43" t="s">
+      <c r="K3" s="33"/>
+      <c r="L3" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="43"/>
+      <c r="M3" s="33"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
@@ -822,192 +828,200 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="38" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="38"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="33"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="35" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="9"/>
-      <c r="M5" s="33"/>
+      <c r="M5" s="35"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="16">
         <v>109181</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="38"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="33"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="16">
         <v>109181</v>
       </c>
-      <c r="K6" s="33"/>
+      <c r="K6" s="35"/>
       <c r="L6" s="11"/>
-      <c r="M6" s="33"/>
+      <c r="M6" s="35"/>
     </row>
     <row r="7" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="38" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="38"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="33"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="35" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="9"/>
-      <c r="M7" s="33"/>
+      <c r="M7" s="35"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="16">
         <v>109181</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="38"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="37"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="33"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="16">
         <v>109181</v>
       </c>
-      <c r="K8" s="33"/>
+      <c r="K8" s="35"/>
       <c r="L8" s="11"/>
-      <c r="M8" s="33"/>
+      <c r="M8" s="35"/>
     </row>
     <row r="9" spans="1:13" s="15" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="38" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="36" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="38"/>
+      <c r="E9" s="37" t="s">
+        <v>26</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="36" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="38"/>
+      <c r="I9" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="J9" s="13"/>
-      <c r="K9" s="33"/>
+      <c r="K9" s="35"/>
       <c r="L9" s="14"/>
-      <c r="M9" s="33"/>
+      <c r="M9" s="35"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="1">
         <v>103093</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="38"/>
+      <c r="E10" s="37"/>
       <c r="F10" s="1">
         <v>103093</v>
       </c>
-      <c r="G10" s="37"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="38"/>
+      <c r="I10" s="37"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="33"/>
+      <c r="K10" s="35"/>
       <c r="L10" s="11"/>
-      <c r="M10" s="33"/>
+      <c r="M10" s="35"/>
     </row>
     <row r="11" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="38" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="36" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="38"/>
+      <c r="E11" s="37" t="s">
+        <v>26</v>
+      </c>
       <c r="F11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="36" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="38"/>
+      <c r="I11" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="J11" s="6"/>
-      <c r="K11" s="33"/>
+      <c r="K11" s="35"/>
       <c r="L11" s="17"/>
-      <c r="M11" s="33"/>
+      <c r="M11" s="35"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="1">
         <v>103093</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="38"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="1">
         <v>103093</v>
       </c>
-      <c r="G12" s="37"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="38"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="33"/>
+      <c r="K12" s="35"/>
       <c r="L12" s="11"/>
-      <c r="M12" s="33"/>
+      <c r="M12" s="35"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
@@ -1024,101 +1038,101 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="17"/>
-      <c r="M13" s="33"/>
+      <c r="M13" s="35"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="44" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="19"/>
-      <c r="C14" s="33"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="19"/>
-      <c r="E14" s="33"/>
+      <c r="E14" s="35"/>
       <c r="F14" s="20"/>
       <c r="G14" s="7"/>
       <c r="H14" s="19"/>
-      <c r="I14" s="33"/>
+      <c r="I14" s="35"/>
       <c r="J14" s="20"/>
-      <c r="K14" s="33"/>
+      <c r="K14" s="35"/>
       <c r="L14" s="11"/>
-      <c r="M14" s="33"/>
+      <c r="M14" s="35"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="21"/>
-      <c r="C15" s="33"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="21"/>
-      <c r="E15" s="33"/>
+      <c r="E15" s="35"/>
       <c r="F15" s="22"/>
       <c r="G15" s="7"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="33"/>
+      <c r="I15" s="35"/>
       <c r="J15" s="22"/>
-      <c r="K15" s="33"/>
+      <c r="K15" s="35"/>
       <c r="L15" s="17"/>
-      <c r="M15" s="33"/>
+      <c r="M15" s="35"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="44" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="19"/>
-      <c r="C16" s="33"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="19"/>
-      <c r="E16" s="33"/>
+      <c r="E16" s="35"/>
       <c r="F16" s="20"/>
       <c r="G16" s="7"/>
       <c r="H16" s="19"/>
-      <c r="I16" s="33"/>
+      <c r="I16" s="35"/>
       <c r="J16" s="20"/>
-      <c r="K16" s="33"/>
+      <c r="K16" s="35"/>
       <c r="L16" s="11"/>
-      <c r="M16" s="33"/>
+      <c r="M16" s="35"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="21"/>
-      <c r="C17" s="33"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="33"/>
+      <c r="E17" s="35"/>
       <c r="F17" s="22"/>
       <c r="G17" s="7"/>
       <c r="H17" s="21"/>
-      <c r="I17" s="33"/>
+      <c r="I17" s="35"/>
       <c r="J17" s="22"/>
-      <c r="K17" s="33"/>
+      <c r="K17" s="35"/>
       <c r="L17" s="17"/>
-      <c r="M17" s="33"/>
+      <c r="M17" s="35"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="44" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="23"/>
-      <c r="C18" s="33"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="23"/>
       <c r="E18" s="6"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="24"/>
-      <c r="I18" s="33"/>
-      <c r="K18" s="33"/>
+      <c r="I18" s="35"/>
+      <c r="K18" s="35"/>
       <c r="L18" s="11"/>
-      <c r="M18" s="33"/>
+      <c r="M18" s="35"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="33"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="25"/>
       <c r="G19" s="7"/>
       <c r="H19" s="26"/>
-      <c r="I19" s="33"/>
-      <c r="K19" s="33"/>
+      <c r="I19" s="35"/>
+      <c r="K19" s="35"/>
       <c r="L19" s="17"/>
-      <c r="M19" s="33"/>
+      <c r="M19" s="35"/>
     </row>
     <row r="20" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
@@ -1135,7 +1149,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="9"/>
       <c r="L20" s="11"/>
-      <c r="M20" s="33"/>
+      <c r="M20" s="35"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
@@ -1154,45 +1168,6 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C7:C8"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="M13:M14"/>
@@ -1209,6 +1184,45 @@
     <mergeCell ref="M17:M18"/>
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
